--- a/MKT-6352/Waterfall Graph.xlsx
+++ b/MKT-6352/Waterfall Graph.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twodegrees1-my.sharepoint.com/personal/rahul_kotian_slalom_com/Documents/Documents/Personal/UTD/Summer - 24/MKT-6352/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{75E8D29E-733F-4BBB-8B69-19AA55029B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0807EEDD-AFF3-45DB-A4A3-BADC7F5A4743}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{75E8D29E-733F-4BBB-8B69-19AA55029B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02D90BE6-E8B9-446E-AD68-543CADEA25EE}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="911" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7270" tabRatio="911" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TY (solution)" sheetId="8" state="hidden" r:id="rId1"/>
@@ -804,7 +804,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -893,7 +893,6 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="45">
@@ -7405,8 +7404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7464,6 +7463,10 @@
         <v>-21111769</v>
       </c>
       <c r="I2" s="34"/>
+      <c r="J2" s="13">
+        <f>B2-C2</f>
+        <v>21111769</v>
+      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
@@ -7551,6 +7554,10 @@
       <c r="S6" s="13"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="G7" s="13">
+        <f>SUM(G3:G5)</f>
+        <v>-20887117.966453806</v>
+      </c>
       <c r="S7" s="13"/>
     </row>
     <row r="8" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -7739,7 +7746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -7843,7 +7850,7 @@
         <f t="shared" si="0"/>
         <v>-3.2864515947419459E-3</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="41">
         <f t="shared" si="1"/>
         <v>-5.5435401028139495</v>
       </c>
@@ -7885,7 +7892,7 @@
       <c r="S6" s="13"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="I7" s="45"/>
+      <c r="I7" s="44"/>
       <c r="S7" s="13"/>
     </row>
     <row r="8" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
